--- a/放置奇兵/高级抽卡率.xlsx
+++ b/放置奇兵/高级抽卡率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,50 +22,50 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>抽次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3星百分比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4星百分比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5星百分比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,17 +82,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,11 +144,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
@@ -423,92 +431,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
         <f>SUM(B3:B100)</f>
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
         <f>SUM(C3:C100)/B2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D2" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2" s="3">
         <f>SUM(D3:D100)/B2</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E2" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E2" s="3">
         <f>SUM(E3:E100)/B2</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43017.638993055552</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/放置奇兵/高级抽卡率.xlsx
+++ b/放置奇兵/高级抽卡率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,13 +142,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
@@ -431,22 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,25 +464,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <f>SUM(B3:B100)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <f>SUM(C3:C100)/B2</f>
-        <v>0.7142857142857143</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(D3:D100)/B2</f>
-        <v>0.14285714285714285</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(E3:E100)/B2</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -498,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43017.638993055552</v>
       </c>
@@ -515,12 +516,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43018</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/放置奇兵/高级抽卡率.xlsx
+++ b/放置奇兵/高级抽卡率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,22 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,25 +464,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <f>SUM(B3:B100)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <f>SUM(C3:C100)/B2</f>
-        <v>0.84615384615384615</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(D3:D100)/B2</f>
-        <v>7.6923076923076927E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(E3:E100)/B2</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43017.638993055552</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43018</v>
       </c>
@@ -535,12 +535,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
